--- a/flashcards.xlsx
+++ b/flashcards.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/likayauelwin/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/likayauelwin/Documents/GitHub/Flashcard-Generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E460FAB9-91B3-9242-B1CF-495584E98DE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78322917-3E03-D04A-8B61-C9A17117354B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8340" yWindow="3620" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -160,10 +160,10 @@
     <t>It relates the dielectric constant to the polarizability and density of polarizable particles, accounting for local field corrections in materials.</t>
   </si>
   <si>
-    <t>Derivarion</t>
-  </si>
-  <si>
     <t>Concept</t>
+  </si>
+  <si>
+    <t>Derivation</t>
   </si>
 </sst>
 </file>
@@ -533,8 +533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -561,7 +561,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -578,7 +578,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -595,7 +595,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -612,7 +612,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -629,7 +629,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -646,7 +646,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
@@ -663,7 +663,7 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
@@ -680,7 +680,7 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
@@ -697,7 +697,7 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C10" t="s">
         <v>6</v>
@@ -714,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s">
         <v>6</v>
@@ -731,7 +731,7 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s">
         <v>6</v>
@@ -748,7 +748,7 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
         <v>7</v>
@@ -765,7 +765,7 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
         <v>7</v>
@@ -782,7 +782,7 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
         <v>7</v>
@@ -799,7 +799,7 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
         <v>7</v>
@@ -816,7 +816,7 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C17" t="s">
         <v>7</v>
@@ -833,7 +833,7 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
         <v>7</v>
@@ -850,7 +850,7 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C19" t="s">
         <v>7</v>
@@ -867,7 +867,7 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C20" t="s">
         <v>7</v>
